--- a/pages/Report_CalEst/Reportes/Estado_Actual_ANGEL D..xlsx
+++ b/pages/Report_CalEst/Reportes/Estado_Actual_ANGEL D..xlsx
@@ -33,7 +33,7 @@
       <sz val="20"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -49,11 +49,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="ffff0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ff00b0f0"/>
       </patternFill>
     </fill>
     <fill>
@@ -90,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -105,10 +100,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -541,7 +535,7 @@
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>Fecha de creación: 2024-01-30</t>
+          <t>Fecha de creación: 2024-02-19</t>
         </is>
       </c>
     </row>
@@ -633,7 +627,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MEDEC</t>
+          <t>YPLC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -666,12 +660,12 @@
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="J9" s="5" t="inlineStr">
@@ -681,17 +675,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Energía</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Durante todo el 2023 la estación permaneció intermitente con gaps de varios días.</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>La estación presenta falla del sistema eléctrico comercial y posiblemente de la tarjeta de red del acelerógrafo.</t>
+          <t>La estación se encuentra por fuera desde el 27 de diciembre de 2023.   Desde el 4 de diciembre de 2023 el promedio del espectro de ruido del acelerografo se  encuentra 100 % por fuera de las curvas de Peterson, puede ser por el archivo de respuesta.</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -701,24 +690,24 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>ANDRES F.</t>
+          <t>OSCAR D.</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2024/1/18</t>
+          <t>2024/2/8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YPLC</t>
+          <t>PTA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -744,14 +733,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>2023-11-16</t>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="J10" s="5" t="inlineStr">
@@ -761,12 +750,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>La estación se encuentra por fiera desde el 27 de diciembre de 2023.</t>
+          <t>Presentaba gaps diariamente en las noches por mas de 12 horas desde marzo de 2023 y las cuentas promedio para la componente Z del sensor HL ha sido mayor a 600 mil, desde el 11 de enero de 2024 permanece por fuera.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presenta problemas tanto por energía como por cobertura celular. Tiene problemas con la caseta en estructura es necesario reubicar la estación  </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -776,24 +770,24 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>OSCAR D.</t>
+          <t>SERGIO J.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>26/1/2024</t>
+          <t>2024/2/1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TAM</t>
+          <t>PTA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
@@ -819,14 +813,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>2023-06-19</t>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-04-13</t>
         </is>
       </c>
       <c r="J11" s="5" t="inlineStr">
@@ -836,17 +830,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Instrumentación</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>La estación se salio el 09 de diciembre de 2022, había presentado un corte del 07 de octubre al 08 de noviembre de 2022 debido a que no había comunicación con el dializador.</t>
+          <t>Presentaba gaps diariamente en las noches por mas de 12 horas desde marzo de 2023 y las cuentas promedio para la componente Z del sensor HL ha sido mayor a 600 mil, desde el 11 de enero de 2024 permanece por fuera.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Ariel Portocarrero A. La estación presenta fallas en la conexión entre el búnker y la caseta, donde posiblemente el digitalizador esté fallando su fuente eléctrica de alimentación 24VDC/12VDC o puede ser el cable de datos del conector RJ45 al switch que esté filtrándose, humedad o este corroído.</t>
+          <t xml:space="preserve">Presenta problemas tanto por energía como por cobertura celular. Tiene problemas con la caseta en estructura es necesario reubicar la estación  </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -856,24 +850,24 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>JUAN C.</t>
+          <t>SERGIO J.</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2024/1/16</t>
+          <t>2024/2/1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TAM</t>
+          <t>MEDEC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C12" s="5" t="n">
@@ -901,12 +895,12 @@
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2023-06-19</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
@@ -916,17 +910,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Instrumentación</t>
+          <t>Energía</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>La estación se salio el 09 de diciembre de 2022, había presentado un corte del 07 de octubre al 08 de noviembre de 2022 debido a que no había comunicación con el dializador.</t>
+          <t>Durante todo el 2023 la estación permaneció intermitente con gaps de varios días.</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Ariel Portocarrero A. La estación presenta fallas en la conexión entre el búnker y la caseta, donde posiblemente el digitalizador esté fallando su fuente eléctrica de alimentación 24VDC/12VDC o puede ser el cable de datos del conector RJ45 al switch que esté filtrándose, humedad o este corroído.</t>
+          <t>La estación presenta falla del sistema eléctrico comercial y posiblemente de la tarjeta de red del acelerógrafo.</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -936,57 +930,49 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>JUAN C.</t>
+          <t>ANDRES F.</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2024/1/16</t>
+          <t>2024/1/18</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YPLC</t>
+          <t>FLO2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>00</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2464.3</v>
+      </c>
+      <c r="F13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H13" s="6" t="inlineStr">
-        <is>
-          <t>2023-11-16</t>
+      <c r="G13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="J13" s="5" t="inlineStr">
@@ -996,12 +982,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>La estación se encuentra por fiera desde el 27 de diciembre de 2023.</t>
+          <t>En la componente Este del acelerografo desde el 21 de enero cambio drasticamente las cuentas de -38 mil a -337 mil en solo dos días.  Sale de funcionamiento el 2 de febrero de 2024 por problemas de comunicación satelital.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Presenta fallas del sistema de comunicación satelital. Es posible que por alguna anomalía en el funcionamiento de los equipos de comunicación (BUC, LNB y/o Modem) o una descarga eléctrica atmosférica, la estación deja de transmitir. Adicionalmente, se verifica si existe portadora en el analizador de espectro y no hay nada. También posiblemente, como no se puede monitorear el sistema eléctrico de la carga del banco de baterías, puede ser una falla por ausencia de la acometida comercial monofásica.</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1011,62 +1002,54 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>OSCAR D.</t>
+          <t>JUAN C.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>26/1/2024</t>
+          <t>2024/2/15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PTA</t>
+          <t>FLO2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>-23841</v>
+      </c>
+      <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="G14" s="6" t="n">
+        <v>55</v>
       </c>
       <c r="H14" s="7" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr">
-        <is>
-          <t>Intermitente</t>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>Por fuera</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1076,12 +1059,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presenta gaps diariamente en las noches por mas de 12 horas desde marzo de 2023 y las cuentas promedio para la componente Z del sensor HL ha sido mayor a 600 mil. </t>
+          <t>En la componente Este del acelerografo desde el 21 de enero cambio drasticamente las cuentas de -38 mil a -337 mil en solo dos días.  Sale de funcionamiento el 2 de febrero de 2024 por problemas de comunicación satelital.</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presenta problemas tanto por energía como por cobertura celular. Tiene problemas con la caseta en estructura es necesario reubicar la estación  </t>
+          <t>Presenta fallas del sistema de comunicación satelital. Es posible que por alguna anomalía en el funcionamiento de los equipos de comunicación (BUC, LNB y/o Modem) o una descarga eléctrica atmosférica, la estación deja de transmitir. Adicionalmente, se verifica si existe portadora en el analizador de espectro y no hay nada. También posiblemente, como no se puede monitorear el sistema eléctrico de la carga del banco de baterías, puede ser una falla por ausencia de la acometida comercial monofásica.</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1091,54 +1074,62 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>SERGIO J.</t>
+          <t>JUAN C.</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2024/1/17</t>
+          <t>2024/2/15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SCLC</t>
+          <t>TAM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E15" s="9" t="n">
-        <v>48282.22</v>
-      </c>
-      <c r="F15" s="6" t="n">
+          <t>00</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>2022-07-26</t>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t>Intermitente</t>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>Por fuera</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1148,12 +1139,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Despues de un corte el 11 de enero de 2024, el sensor 00 retomo transmitiendo pero el sensor 10 no,  y permaneció por fuera del 11 al 15 de enero, Johnnatan reinició el equipo y volvió a ingresar.</t>
+          <t>La estación se salio el 09 de diciembre de 2022, había presentado un corte del 07 de octubre al 08 de noviembre de 2022 debido a que no había comunicación con el dializador.</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Se evidencia que había inconveniente en el envío de los datos del equipo .10 a Seiscomp pues enviaba datos con fecha de 2025 eso es por problema con el equipo Gaiacode. El 15 de enero a las 19:53 UTC se reinicia el equipo y vuelve a transmitir con la fecha correcta. Informa Johnnatan</t>
+          <t>Ariel Portocarrero A. La estación presenta fallas en la conexión entre el búnker y la caseta, donde posiblemente el digitalizador esté fallando su fuente eléctrica de alimentación 24VDC/12VDC o puede ser el cable de datos del conector RJ45 al switch que esté filtrándose, humedad o este corroído.</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1163,40 +1154,48 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>ANDRES F.</t>
+          <t>JUAN C.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2024/1/15</t>
+          <t>2024/1/16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CYOPA</t>
+          <t>YPLC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>-155.48</v>
-      </c>
-      <c r="F16" s="6" t="n">
+          <t>00</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="6" t="n">
-        <v>40</v>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
@@ -1205,27 +1204,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr">
-        <is>
-          <t>Intermitente</t>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>Por fuera</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Desde octubre de 2023 Sale por dìas y vuelve a ingresar.</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Presenta fallas en el servicio de la red del operador de celular Claro en la zona de cobertura de la estación, se planea cambiar de operador.</t>
+          <t>La estación se encuentra por fuera desde el 27 de diciembre de 2023.   Desde el 4 de diciembre de 2023 el promedio del espectro de ruido del acelerografo se  encuentra 100 % por fuera de las curvas de Peterson, puede ser por el archivo de respuesta.</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1235,54 +1229,62 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>ANDRES F.</t>
+          <t>OSCAR D.</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2024/1/9</t>
+          <t>2024/2/8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SCLC</t>
+          <t>TAM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>-517.62</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>36.54</v>
-      </c>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>2022-07-26</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
-        </is>
-      </c>
-      <c r="J17" s="7" t="inlineStr">
-        <is>
-          <t>Intermitente</t>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>Por fuera</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1292,12 +1294,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Despues de un corte el 11 de enero de 2024, el sensor 00 retomo transmitiendo pero el sensor 10 no,  y permaneció por fuera del 11 al 15 de enero, Johnnatan reinició el equipo y volvió a ingresar.</t>
+          <t>La estación se salio el 09 de diciembre de 2022, había presentado un corte del 07 de octubre al 08 de noviembre de 2022 debido a que no había comunicación con el dializador.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Se evidencia que había inconveniente en el envío de los datos del equipo .10 a Seiscomp pues enviaba datos con fecha de 2025 eso es por problema con el equipo Gaiacode. El 15 de enero a las 19:53 UTC se reinicia el equipo y vuelve a transmitir con la fecha correcta. Informa Johnnatan</t>
+          <t>Ariel Portocarrero A. La estación presenta fallas en la conexión entre el búnker y la caseta, donde posiblemente el digitalizador esté fallando su fuente eléctrica de alimentación 24VDC/12VDC o puede ser el cable de datos del conector RJ45 al switch que esté filtrándose, humedad o este corroído.</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1307,12 +1309,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>ANDRES F.</t>
+          <t>JUAN C.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2024/1/15</t>
+          <t>2024/1/16</t>
         </is>
       </c>
     </row>
@@ -1328,19 +1330,19 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>100</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E18" s="9" t="n">
-        <v>-30707.55</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>-28787.35</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
@@ -1391,23 +1393,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>00</t>
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>100</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2607.57</v>
+        <v>444.91</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
@@ -1458,23 +1460,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>100</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>550.15</v>
+        <v>1.47</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>120113.26</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.92</v>
+        <v>0.13</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0</v>
+        <v>25.33</v>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
@@ -1520,7 +1522,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PTA</t>
+          <t>CGENO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1528,57 +1530,39 @@
           <t>10</t>
         </is>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-5971.18</v>
+      </c>
+      <c r="F21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="G21" s="6" t="n">
+        <v>40</v>
       </c>
       <c r="H21" s="7" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>Intermitente</t>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>Bien</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presenta gaps diariamente en las noches por mas de 12 horas desde marzo de 2023 y las cuentas promedio para la componente Z del sensor HL ha sido mayor a 600 mil. </t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presenta problemas tanto por energía como por cobertura celular. Tiene problemas con la caseta en estructura es necesario reubicar la estación  </t>
+          <t>ninguno</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1588,49 +1572,49 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>SERGIO J.</t>
+          <t>OSCAR D.</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2024/1/17</t>
+          <t>30/1/2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TABC</t>
+          <t>SCLC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>00</t>
         </is>
       </c>
       <c r="C22" s="6" t="n">
         <v>100</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>-8878.32</v>
+        <v>-517.53</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30.42</v>
+        <v>40</v>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="J22" s="6" t="inlineStr">
@@ -1643,6 +1627,16 @@
           <t>ninguno</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Despues de un corte el 11 de enero de 2024, el sensor 00 retomo transmitiendo pero el sensor 10 no, y permaneció por fuera del 11 al 15 de enero, Johnnatan reinició el equipo y volvió a ingresar.</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Se evidencia que había inconveniente en el envío de los datos del equipo .10 a Seiscomp pues enviaba datos con fecha de 2025 eso es por problema con el equipo Gaiacode. El 15 de enero a las 19:53 UTC se reinicia el equipo y vuelve a transmitir con la fecha correcta. Informa Johnnatan</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>ANGEL D.</t>
@@ -1650,19 +1644,19 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>OSCAR D.</t>
+          <t>ANDRES F.</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>30/1/2024</t>
+          <t>2024/2/15</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CGENO</t>
+          <t>SCLC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1671,28 +1665,28 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>-7724.46</v>
+        <v>1.27</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>50439.78</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="H23" s="7" t="inlineStr">
-        <is>
-          <t>2023-02-24</t>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="J23" s="6" t="inlineStr">
@@ -1705,6 +1699,16 @@
           <t>ninguno</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Despues de un corte el 11 de enero de 2024, el sensor 00 retomo transmitiendo pero el sensor 10 no, y permaneció por fuera del 11 al 15 de enero, Johnnatan reinició el equipo y volvió a ingresar.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Se evidencia que había inconveniente en el envío de los datos del equipo .10 a Seiscomp pues enviaba datos con fecha de 2025 eso es por problema con el equipo Gaiacode. El 15 de enero a las 19:53 UTC se reinicia el equipo y vuelve a transmitir con la fecha correcta. Informa Johnnatan</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>ANGEL D.</t>
@@ -1712,44 +1716,44 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>OSCAR D.</t>
+          <t>ANDRES F.</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>30/1/2024</t>
+          <t>2024/2/15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MAN1C</t>
+          <t>TABC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
         <v>100</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E24" s="9" t="n">
-        <v>-30048.76</v>
+        <v>0.67</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-8879.67</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>75.38</v>
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>30.67</v>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>2019-07-02</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1786,37 +1790,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FLO2</t>
+          <t>GARC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C25" s="6" t="n">
         <v>100</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1902.71</v>
+        <v>-6466.8</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.85</v>
+        <v>0.13</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>2023-04-24</t>
+          <t>2023-06-09</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="J25" s="6" t="inlineStr">
@@ -1829,9 +1833,9 @@
           <t>ninguno</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>En la componente Este del acelerografo desde el 21 de enero cambio drasticamente las cuentas de -38 mil a -337 mil en solo dos días.</t>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La estación esta en buen funcionamiento y permite el registro de eventos  sísmicos. </t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1841,19 +1845,19 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>JUAN C.</t>
+          <t>ARIEL P.</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>30/1/2024</t>
+          <t>2024/2/5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FLO2</t>
+          <t>MAN1C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1865,20 +1869,20 @@
         <v>100</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E26" s="9" t="n">
-        <v>-24175.8</v>
+        <v>0.73</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>-35586.13</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="6" t="n">
-        <v>39.62</v>
-      </c>
-      <c r="H26" s="6" t="inlineStr">
-        <is>
-          <t>2023-04-24</t>
+      <c r="G26" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>2019-07-02</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1896,11 +1900,6 @@
           <t>ninguno</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>En la componente Este del acelerografo desde el 21 de enero cambio drasticamente las cuentas de -38 mil a -337 mil en solo dos días.</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>ANGEL D.</t>
@@ -1908,7 +1907,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>JUAN C.</t>
+          <t>OSCAR D.</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -1920,37 +1919,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GARC</t>
+          <t>CYOPA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" s="6" t="n">
         <v>100</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>730.11</v>
-      </c>
-      <c r="F27" s="9" t="n">
-        <v>2.08</v>
+        <v>-156.32</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2023-10-19</t>
         </is>
       </c>
       <c r="J27" s="6" t="inlineStr">
@@ -1960,7 +1959,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ninguno</t>
+          <t>Comunicaciones</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>La estación presentaba problemas de transmición por cobertura de la red celular,   pero desde el 5 de enero de 2024, la estáción ha estado funcionando bien sin cortes ni gaps.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Presenta fallas en el servicio de la red del operador de celular Claro en la zona de cobertura de la estación, se planea cambiar de operador.</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -1970,12 +1979,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>ARIEL P.</t>
+          <t>ANDRES F.</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>30/1/2024</t>
+          <t>2024/2/15</t>
         </is>
       </c>
     </row>
@@ -1987,23 +1996,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>00</t>
         </is>
       </c>
       <c r="C28" s="6" t="n">
         <v>100</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>-6381.18</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>0.38</v>
+        <v>718.52</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>1.4</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
@@ -2012,7 +2021,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="J28" s="6" t="inlineStr">
@@ -2025,6 +2034,11 @@
           <t>ninguno</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La estación esta en buen funcionamiento y permite el registro de eventos  sísmicos. </t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>ANGEL D.</t>
@@ -2037,7 +2051,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>30/1/2024</t>
+          <t>2024/2/5</t>
         </is>
       </c>
     </row>
